--- a/VisualData/visual.xlsx
+++ b/VisualData/visual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCKH2020\VisualData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6818D9EC-F842-4081-AFAA-756B399C034E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB0D9AD-995F-494C-95C9-694105FA8121}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2145" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_202007" sheetId="1" r:id="rId1"/>
@@ -436,10 +436,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C649"/>
+  <dimension ref="A1:F649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>101</v>
       </c>
@@ -470,8 +470,12 @@
       <c r="C2" s="1">
         <v>44013.417141203703</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>60/((649-2+1)/18)*60*1000</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>102</v>
       </c>
@@ -482,7 +486,7 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>103</v>
       </c>
@@ -493,18 +497,18 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>104</v>
       </c>
       <c r="B5" s="4">
-        <v>99.98</v>
+        <v>-5.36</v>
       </c>
       <c r="C5" s="1">
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>106</v>
       </c>
@@ -515,7 +519,7 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>105</v>
       </c>
@@ -526,18 +530,18 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>110</v>
       </c>
       <c r="B8" s="4">
-        <v>99.98</v>
+        <v>-5.85</v>
       </c>
       <c r="C8" s="1">
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>111</v>
       </c>
@@ -548,7 +552,7 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>107</v>
       </c>
@@ -559,18 +563,18 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>108</v>
       </c>
       <c r="B11" s="4">
-        <v>99.98</v>
+        <v>-5.14</v>
       </c>
       <c r="C11" s="1">
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>109</v>
       </c>
@@ -581,7 +585,7 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>112</v>
       </c>
@@ -592,7 +596,7 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>113</v>
       </c>
@@ -603,18 +607,18 @@
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>114</v>
       </c>
       <c r="B15" s="4">
-        <v>99.98</v>
+        <v>-5.99</v>
       </c>
       <c r="C15" s="1">
         <v>44013.417141203703</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>115</v>
       </c>
@@ -696,7 +700,7 @@
         <v>104</v>
       </c>
       <c r="B23" s="4">
-        <v>99.98</v>
+        <v>-5.94</v>
       </c>
       <c r="C23" s="1">
         <v>44013.418611111112</v>
@@ -751,7 +755,7 @@
         <v>108</v>
       </c>
       <c r="B28" s="4">
-        <v>99.98</v>
+        <v>-5.89</v>
       </c>
       <c r="C28" s="1">
         <v>44013.418611111112</v>
@@ -762,7 +766,7 @@
         <v>110</v>
       </c>
       <c r="B29" s="4">
-        <v>99.98</v>
+        <v>-5.13</v>
       </c>
       <c r="C29" s="1">
         <v>44013.418611111112</v>
@@ -806,7 +810,7 @@
         <v>114</v>
       </c>
       <c r="B33" s="4">
-        <v>99.98</v>
+        <v>-5.35</v>
       </c>
       <c r="C33" s="1">
         <v>44013.418611111112</v>
@@ -894,7 +898,7 @@
         <v>104</v>
       </c>
       <c r="B41" s="4">
-        <v>99.98</v>
+        <v>-5.79</v>
       </c>
       <c r="C41" s="1">
         <v>44013.419664351852</v>
@@ -916,7 +920,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="4">
-        <v>99.98</v>
+        <v>-5.39</v>
       </c>
       <c r="C43" s="1">
         <v>44013.419664351852</v>
@@ -949,7 +953,7 @@
         <v>108</v>
       </c>
       <c r="B46" s="4">
-        <v>99.98</v>
+        <v>-5.76</v>
       </c>
       <c r="C46" s="1">
         <v>44013.419664351852</v>
@@ -1048,7 +1052,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="4">
-        <v>99.98</v>
+        <v>-5.41</v>
       </c>
       <c r="C55" s="1">
         <v>44013.419664351852</v>
@@ -1092,7 +1096,7 @@
         <v>104</v>
       </c>
       <c r="B59" s="4">
-        <v>99.98</v>
+        <v>-4.79</v>
       </c>
       <c r="C59" s="1">
         <v>44013.421006944445</v>
@@ -1147,7 +1151,7 @@
         <v>108</v>
       </c>
       <c r="B64" s="4">
-        <v>99.98</v>
+        <v>-4.41</v>
       </c>
       <c r="C64" s="1">
         <v>44013.421006944445</v>
@@ -1158,7 +1162,7 @@
         <v>110</v>
       </c>
       <c r="B65" s="4">
-        <v>99.98</v>
+        <v>-4.88</v>
       </c>
       <c r="C65" s="1">
         <v>44013.421006944445</v>
@@ -1202,7 +1206,7 @@
         <v>114</v>
       </c>
       <c r="B69" s="4">
-        <v>99.98</v>
+        <v>-5.16</v>
       </c>
       <c r="C69" s="1">
         <v>44013.421006944445</v>
@@ -1290,7 +1294,7 @@
         <v>104</v>
       </c>
       <c r="B77" s="4">
-        <v>99.98</v>
+        <v>-4.33</v>
       </c>
       <c r="C77" s="1">
         <v>44013.422534722224</v>
@@ -1345,7 +1349,7 @@
         <v>108</v>
       </c>
       <c r="B82" s="4">
-        <v>99.98</v>
+        <v>-4.26</v>
       </c>
       <c r="C82" s="1">
         <v>44013.422534722224</v>
@@ -1356,7 +1360,7 @@
         <v>110</v>
       </c>
       <c r="B83" s="4">
-        <v>99.98</v>
+        <v>-3.82</v>
       </c>
       <c r="C83" s="1">
         <v>44013.422534722224</v>
@@ -1400,7 +1404,7 @@
         <v>114</v>
       </c>
       <c r="B87" s="4">
-        <v>99.98</v>
+        <v>-4.3</v>
       </c>
       <c r="C87" s="1">
         <v>44013.422534722224</v>
@@ -1488,7 +1492,7 @@
         <v>104</v>
       </c>
       <c r="B95" s="4">
-        <v>99.98</v>
+        <v>-4.58</v>
       </c>
       <c r="C95" s="1">
         <v>44013.424050925925</v>
@@ -1532,7 +1536,7 @@
         <v>108</v>
       </c>
       <c r="B99" s="4">
-        <v>99.98</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C99" s="1">
         <v>44013.424050925925</v>
@@ -1554,7 +1558,7 @@
         <v>110</v>
       </c>
       <c r="B101" s="4">
-        <v>99.98</v>
+        <v>-4.08</v>
       </c>
       <c r="C101" s="1">
         <v>44013.424050925925</v>
@@ -1598,7 +1602,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="4">
-        <v>99.98</v>
+        <v>-4.38</v>
       </c>
       <c r="C105" s="1">
         <v>44013.424050925925</v>
@@ -1686,7 +1690,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="4">
-        <v>99.98</v>
+        <v>-4.04</v>
       </c>
       <c r="C113" s="1">
         <v>44013.425104166665</v>
@@ -1697,7 +1701,7 @@
         <v>108</v>
       </c>
       <c r="B114" s="4">
-        <v>99.98</v>
+        <v>-4.17</v>
       </c>
       <c r="C114" s="1">
         <v>44013.425104166665</v>
@@ -1741,7 +1745,7 @@
         <v>110</v>
       </c>
       <c r="B118" s="4">
-        <v>99.98</v>
+        <v>-4.3499999999999996</v>
       </c>
       <c r="C118" s="1">
         <v>44013.425104166665</v>
@@ -1796,7 +1800,7 @@
         <v>114</v>
       </c>
       <c r="B123" s="4">
-        <v>99.98</v>
+        <v>-4.3099999999999996</v>
       </c>
       <c r="C123" s="1">
         <v>44013.425104166665</v>
@@ -1884,7 +1888,7 @@
         <v>104</v>
       </c>
       <c r="B131" s="4">
-        <v>99.98</v>
+        <v>-4.6900000000000004</v>
       </c>
       <c r="C131" s="1">
         <v>44013.426157407404</v>
@@ -1928,7 +1932,7 @@
         <v>108</v>
       </c>
       <c r="B135" s="4">
-        <v>99.98</v>
+        <v>-4.51</v>
       </c>
       <c r="C135" s="1">
         <v>44013.426157407404</v>
@@ -1950,7 +1954,7 @@
         <v>110</v>
       </c>
       <c r="B137" s="4">
-        <v>99.98</v>
+        <v>-4.16</v>
       </c>
       <c r="C137" s="1">
         <v>44013.426157407404</v>
@@ -1994,7 +1998,7 @@
         <v>114</v>
       </c>
       <c r="B141" s="4">
-        <v>99.98</v>
+        <v>-4.67</v>
       </c>
       <c r="C141" s="1">
         <v>44013.426157407404</v>
@@ -2082,7 +2086,7 @@
         <v>104</v>
       </c>
       <c r="B149" s="4">
-        <v>99.98</v>
+        <v>-3.96</v>
       </c>
       <c r="C149" s="1">
         <v>44013.427708333336</v>
@@ -2137,7 +2141,7 @@
         <v>108</v>
       </c>
       <c r="B154" s="4">
-        <v>99.98</v>
+        <v>-4.41</v>
       </c>
       <c r="C154" s="1">
         <v>44013.427708333336</v>
@@ -2148,7 +2152,7 @@
         <v>110</v>
       </c>
       <c r="B155" s="4">
-        <v>99.98</v>
+        <v>-4.6900000000000004</v>
       </c>
       <c r="C155" s="1">
         <v>44013.427708333336</v>
@@ -2192,7 +2196,7 @@
         <v>114</v>
       </c>
       <c r="B159" s="4">
-        <v>99.98</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C159" s="1">
         <v>44013.427708333336</v>
@@ -2280,7 +2284,7 @@
         <v>104</v>
       </c>
       <c r="B167" s="4">
-        <v>99.98</v>
+        <v>-4.5</v>
       </c>
       <c r="C167" s="1">
         <v>44013.428749999999</v>
@@ -2335,7 +2339,7 @@
         <v>108</v>
       </c>
       <c r="B172" s="4">
-        <v>99.98</v>
+        <v>-4</v>
       </c>
       <c r="C172" s="1">
         <v>44013.428749999999</v>
@@ -2346,7 +2350,7 @@
         <v>110</v>
       </c>
       <c r="B173" s="4">
-        <v>99.98</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="C173" s="1">
         <v>44013.428749999999</v>
@@ -2390,7 +2394,7 @@
         <v>114</v>
       </c>
       <c r="B177" s="4">
-        <v>99.98</v>
+        <v>-3.82</v>
       </c>
       <c r="C177" s="1">
         <v>44013.428749999999</v>
@@ -2478,7 +2482,7 @@
         <v>104</v>
       </c>
       <c r="B185" s="4">
-        <v>99.98</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="C185" s="1">
         <v>44013.429803240739</v>
@@ -2489,7 +2493,7 @@
         <v>108</v>
       </c>
       <c r="B186" s="4">
-        <v>99.98</v>
+        <v>-3.98</v>
       </c>
       <c r="C186" s="1">
         <v>44013.429803240739</v>
@@ -2544,7 +2548,7 @@
         <v>110</v>
       </c>
       <c r="B191" s="4">
-        <v>99.98</v>
+        <v>-3.96</v>
       </c>
       <c r="C191" s="1">
         <v>44013.429803240739</v>
@@ -2588,7 +2592,7 @@
         <v>114</v>
       </c>
       <c r="B195" s="4">
-        <v>99.98</v>
+        <v>-4.8099999999999996</v>
       </c>
       <c r="C195" s="1">
         <v>44013.429803240739</v>
@@ -2676,7 +2680,7 @@
         <v>104</v>
       </c>
       <c r="B203" s="4">
-        <v>99.98</v>
+        <v>-4.12</v>
       </c>
       <c r="C203" s="1">
         <v>44013.430844907409</v>
@@ -2731,7 +2735,7 @@
         <v>108</v>
       </c>
       <c r="B208" s="4">
-        <v>99.98</v>
+        <v>-4.7</v>
       </c>
       <c r="C208" s="1">
         <v>44013.430844907409</v>
@@ -2742,7 +2746,7 @@
         <v>110</v>
       </c>
       <c r="B209" s="4">
-        <v>99.98</v>
+        <v>-4.17</v>
       </c>
       <c r="C209" s="1">
         <v>44013.430844907409</v>
@@ -2786,7 +2790,7 @@
         <v>114</v>
       </c>
       <c r="B213" s="4">
-        <v>99.98</v>
+        <v>-4.07</v>
       </c>
       <c r="C213" s="1">
         <v>44013.430844907409</v>
@@ -2874,7 +2878,7 @@
         <v>104</v>
       </c>
       <c r="B221" s="4">
-        <v>99.98</v>
+        <v>-4.32</v>
       </c>
       <c r="C221" s="1">
         <v>44013.431898148148</v>
@@ -2918,7 +2922,7 @@
         <v>108</v>
       </c>
       <c r="B225" s="4">
-        <v>99.98</v>
+        <v>-3.93</v>
       </c>
       <c r="C225" s="1">
         <v>44013.431898148148</v>
@@ -2940,7 +2944,7 @@
         <v>110</v>
       </c>
       <c r="B227" s="4">
-        <v>99.98</v>
+        <v>-4.6399999999999997</v>
       </c>
       <c r="C227" s="1">
         <v>44013.431898148148</v>
@@ -2984,7 +2988,7 @@
         <v>114</v>
       </c>
       <c r="B231" s="4">
-        <v>99.98</v>
+        <v>-4.58</v>
       </c>
       <c r="C231" s="1">
         <v>44013.431898148148</v>
@@ -3072,7 +3076,7 @@
         <v>104</v>
       </c>
       <c r="B239" s="4">
-        <v>99.98</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="C239" s="1">
         <v>44013.432939814818</v>
@@ -3127,7 +3131,7 @@
         <v>108</v>
       </c>
       <c r="B244" s="4">
-        <v>99.98</v>
+        <v>-4.3899999999999997</v>
       </c>
       <c r="C244" s="1">
         <v>44013.432939814818</v>
@@ -3138,7 +3142,7 @@
         <v>110</v>
       </c>
       <c r="B245" s="4">
-        <v>99.98</v>
+        <v>-4.55</v>
       </c>
       <c r="C245" s="1">
         <v>44013.432939814818</v>
@@ -3182,7 +3186,7 @@
         <v>114</v>
       </c>
       <c r="B249" s="4">
-        <v>99.98</v>
+        <v>-4.13</v>
       </c>
       <c r="C249" s="1">
         <v>44013.432939814818</v>
@@ -3270,7 +3274,7 @@
         <v>104</v>
       </c>
       <c r="B257" s="4">
-        <v>99.98</v>
+        <v>-4.59</v>
       </c>
       <c r="C257" s="1">
         <v>44013.434432870374</v>
@@ -3303,7 +3307,7 @@
         <v>108</v>
       </c>
       <c r="B260" s="4">
-        <v>99.98</v>
+        <v>-3.96</v>
       </c>
       <c r="C260" s="1">
         <v>44013.434432870374</v>
@@ -3336,7 +3340,7 @@
         <v>110</v>
       </c>
       <c r="B263" s="4">
-        <v>99.98</v>
+        <v>-3.99</v>
       </c>
       <c r="C263" s="1">
         <v>44013.434432870374</v>
@@ -3358,7 +3362,7 @@
         <v>114</v>
       </c>
       <c r="B265" s="4">
-        <v>99.98</v>
+        <v>-4.5</v>
       </c>
       <c r="C265" s="1">
         <v>44013.434432870374</v>
@@ -3468,7 +3472,7 @@
         <v>104</v>
       </c>
       <c r="B275" s="4">
-        <v>99.98</v>
+        <v>-4.05</v>
       </c>
       <c r="C275" s="1">
         <v>44013.435486111113</v>
@@ -3523,7 +3527,7 @@
         <v>108</v>
       </c>
       <c r="B280" s="4">
-        <v>99.98</v>
+        <v>-3.95</v>
       </c>
       <c r="C280" s="1">
         <v>44013.435486111113</v>
@@ -3534,7 +3538,7 @@
         <v>110</v>
       </c>
       <c r="B281" s="4">
-        <v>99.98</v>
+        <v>-4.3</v>
       </c>
       <c r="C281" s="1">
         <v>44013.435486111113</v>
@@ -3578,7 +3582,7 @@
         <v>114</v>
       </c>
       <c r="B285" s="4">
-        <v>99.98</v>
+        <v>-3.67</v>
       </c>
       <c r="C285" s="1">
         <v>44013.435486111113</v>
@@ -3666,7 +3670,7 @@
         <v>104</v>
       </c>
       <c r="B293" s="4">
-        <v>99.98</v>
+        <v>-3.91</v>
       </c>
       <c r="C293" s="1">
         <v>44013.436527777776</v>
@@ -3721,7 +3725,7 @@
         <v>108</v>
       </c>
       <c r="B298" s="4">
-        <v>99.98</v>
+        <v>-3.93</v>
       </c>
       <c r="C298" s="1">
         <v>44013.436527777776</v>
@@ -3732,7 +3736,7 @@
         <v>110</v>
       </c>
       <c r="B299" s="4">
-        <v>99.98</v>
+        <v>-3.97</v>
       </c>
       <c r="C299" s="1">
         <v>44013.436527777776</v>
@@ -3776,7 +3780,7 @@
         <v>114</v>
       </c>
       <c r="B303" s="4">
-        <v>99.98</v>
+        <v>-4.2300000000000004</v>
       </c>
       <c r="C303" s="1">
         <v>44013.436527777776</v>
@@ -3864,7 +3868,7 @@
         <v>104</v>
       </c>
       <c r="B311" s="4">
-        <v>99.98</v>
+        <v>-3.74</v>
       </c>
       <c r="C311" s="1">
         <v>44013.437569444446</v>
@@ -3919,7 +3923,7 @@
         <v>108</v>
       </c>
       <c r="B316" s="4">
-        <v>99.98</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="C316" s="1">
         <v>44013.437569444446</v>
@@ -3941,7 +3945,7 @@
         <v>110</v>
       </c>
       <c r="B318" s="4">
-        <v>99.98</v>
+        <v>-4.57</v>
       </c>
       <c r="C318" s="1">
         <v>44013.437569444446</v>
@@ -3974,7 +3978,7 @@
         <v>114</v>
       </c>
       <c r="B321" s="4">
-        <v>99.98</v>
+        <v>-3.99</v>
       </c>
       <c r="C321" s="1">
         <v>44013.437569444446</v>
@@ -4062,7 +4066,7 @@
         <v>104</v>
       </c>
       <c r="B329" s="4">
-        <v>99.98</v>
+        <v>-3.6</v>
       </c>
       <c r="C329" s="1">
         <v>44013.438622685186</v>
@@ -4117,7 +4121,7 @@
         <v>108</v>
       </c>
       <c r="B334" s="4">
-        <v>99.98</v>
+        <v>-4</v>
       </c>
       <c r="C334" s="1">
         <v>44013.438622685186</v>
@@ -4128,7 +4132,7 @@
         <v>110</v>
       </c>
       <c r="B335" s="4">
-        <v>99.98</v>
+        <v>-3.92</v>
       </c>
       <c r="C335" s="1">
         <v>44013.438622685186</v>
@@ -4172,7 +4176,7 @@
         <v>114</v>
       </c>
       <c r="B339" s="4">
-        <v>99.98</v>
+        <v>-4.38</v>
       </c>
       <c r="C339" s="1">
         <v>44013.438622685186</v>
@@ -4260,7 +4264,7 @@
         <v>104</v>
       </c>
       <c r="B347" s="4">
-        <v>99.98</v>
+        <v>-3.69</v>
       </c>
       <c r="C347" s="1">
         <v>44013.440185185187</v>
@@ -4282,7 +4286,7 @@
         <v>110</v>
       </c>
       <c r="B349" s="4">
-        <v>99.98</v>
+        <v>-4.4400000000000004</v>
       </c>
       <c r="C349" s="1">
         <v>44013.440185185187</v>
@@ -4315,7 +4319,7 @@
         <v>108</v>
       </c>
       <c r="B352" s="4">
-        <v>99.98</v>
+        <v>-3.81</v>
       </c>
       <c r="C352" s="1">
         <v>44013.440185185187</v>
@@ -4370,7 +4374,7 @@
         <v>114</v>
       </c>
       <c r="B357" s="4">
-        <v>99.98</v>
+        <v>-3.81</v>
       </c>
       <c r="C357" s="1">
         <v>44013.440185185187</v>
@@ -4458,7 +4462,7 @@
         <v>104</v>
       </c>
       <c r="B365" s="4">
-        <v>99.98</v>
+        <v>-3.72</v>
       </c>
       <c r="C365" s="1">
         <v>44013.441238425927</v>
@@ -4513,7 +4517,7 @@
         <v>108</v>
       </c>
       <c r="B370" s="4">
-        <v>99.98</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="C370" s="1">
         <v>44013.441238425927</v>
@@ -4524,7 +4528,7 @@
         <v>110</v>
       </c>
       <c r="B371" s="4">
-        <v>99.98</v>
+        <v>-3.99</v>
       </c>
       <c r="C371" s="1">
         <v>44013.441238425927</v>
@@ -4568,7 +4572,7 @@
         <v>114</v>
       </c>
       <c r="B375" s="4">
-        <v>99.98</v>
+        <v>-4.09</v>
       </c>
       <c r="C375" s="1">
         <v>44013.441238425927</v>
@@ -4656,7 +4660,7 @@
         <v>104</v>
       </c>
       <c r="B383" s="4">
-        <v>99.98</v>
+        <v>-3.51</v>
       </c>
       <c r="C383" s="1">
         <v>44013.442280092589</v>
@@ -4711,7 +4715,7 @@
         <v>108</v>
       </c>
       <c r="B388" s="4">
-        <v>99.98</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C388" s="1">
         <v>44013.442280092589</v>
@@ -4722,7 +4726,7 @@
         <v>110</v>
       </c>
       <c r="B389" s="4">
-        <v>99.98</v>
+        <v>-3.99</v>
       </c>
       <c r="C389" s="1">
         <v>44013.442280092589</v>
@@ -4766,7 +4770,7 @@
         <v>114</v>
       </c>
       <c r="B393" s="4">
-        <v>99.98</v>
+        <v>-3.89</v>
       </c>
       <c r="C393" s="1">
         <v>44013.442280092589</v>
@@ -4854,7 +4858,7 @@
         <v>104</v>
       </c>
       <c r="B401" s="4">
-        <v>99.98</v>
+        <v>-4.3</v>
       </c>
       <c r="C401" s="1">
         <v>44013.443333333336</v>
@@ -4909,7 +4913,7 @@
         <v>108</v>
       </c>
       <c r="B406" s="4">
-        <v>99.98</v>
+        <v>-4.2</v>
       </c>
       <c r="C406" s="1">
         <v>44013.443333333336</v>
@@ -4920,7 +4924,7 @@
         <v>110</v>
       </c>
       <c r="B407" s="4">
-        <v>99.98</v>
+        <v>-4.04</v>
       </c>
       <c r="C407" s="1">
         <v>44013.443333333336</v>
@@ -4964,7 +4968,7 @@
         <v>114</v>
       </c>
       <c r="B411" s="4">
-        <v>99.98</v>
+        <v>-3.81</v>
       </c>
       <c r="C411" s="1">
         <v>44013.443333333336</v>
@@ -5052,7 +5056,7 @@
         <v>104</v>
       </c>
       <c r="B419" s="4">
-        <v>99.98</v>
+        <v>-3.58</v>
       </c>
       <c r="C419" s="1">
         <v>44013.444374999999</v>
@@ -5107,7 +5111,7 @@
         <v>108</v>
       </c>
       <c r="B424" s="4">
-        <v>99.98</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="C424" s="1">
         <v>44013.444374999999</v>
@@ -5118,7 +5122,7 @@
         <v>110</v>
       </c>
       <c r="B425" s="4">
-        <v>99.98</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="C425" s="1">
         <v>44013.444374999999</v>
@@ -5162,7 +5166,7 @@
         <v>114</v>
       </c>
       <c r="B429" s="4">
-        <v>99.98</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="C429" s="1">
         <v>44013.444374999999</v>
@@ -5250,7 +5254,7 @@
         <v>104</v>
       </c>
       <c r="B437" s="4">
-        <v>99.98</v>
+        <v>-3.28</v>
       </c>
       <c r="C437" s="1">
         <v>44013.445416666669</v>
@@ -5305,7 +5309,7 @@
         <v>108</v>
       </c>
       <c r="B442" s="4">
-        <v>99.98</v>
+        <v>-3.82</v>
       </c>
       <c r="C442" s="1">
         <v>44013.445416666669</v>
@@ -5316,7 +5320,7 @@
         <v>110</v>
       </c>
       <c r="B443" s="4">
-        <v>99.98</v>
+        <v>-4.13</v>
       </c>
       <c r="C443" s="1">
         <v>44013.445416666669</v>
@@ -5360,7 +5364,7 @@
         <v>114</v>
       </c>
       <c r="B447" s="4">
-        <v>99.98</v>
+        <v>-3.69</v>
       </c>
       <c r="C447" s="1">
         <v>44013.445416666669</v>
@@ -5448,7 +5452,7 @@
         <v>104</v>
       </c>
       <c r="B455" s="4">
-        <v>99.98</v>
+        <v>-4.1900000000000004</v>
       </c>
       <c r="C455" s="1">
         <v>44013.446898148148</v>
@@ -5503,7 +5507,7 @@
         <v>108</v>
       </c>
       <c r="B460" s="4">
-        <v>99.98</v>
+        <v>-3.33</v>
       </c>
       <c r="C460" s="1">
         <v>44013.446898148148</v>
@@ -5525,7 +5529,7 @@
         <v>110</v>
       </c>
       <c r="B462" s="4">
-        <v>99.98</v>
+        <v>-3.6</v>
       </c>
       <c r="C462" s="1">
         <v>44013.446898148148</v>
@@ -5558,7 +5562,7 @@
         <v>114</v>
       </c>
       <c r="B465" s="4">
-        <v>99.98</v>
+        <v>-3.47</v>
       </c>
       <c r="C465" s="1">
         <v>44013.446898148148</v>
@@ -5646,7 +5650,7 @@
         <v>104</v>
       </c>
       <c r="B473" s="4">
-        <v>99.98</v>
+        <v>-3.58</v>
       </c>
       <c r="C473" s="1">
         <v>44013.448391203703</v>
@@ -5690,7 +5694,7 @@
         <v>108</v>
       </c>
       <c r="B477" s="4">
-        <v>99.98</v>
+        <v>-3.76</v>
       </c>
       <c r="C477" s="1">
         <v>44013.448391203703</v>
@@ -5701,7 +5705,7 @@
         <v>110</v>
       </c>
       <c r="B478" s="4">
-        <v>99.98</v>
+        <v>-3.76</v>
       </c>
       <c r="C478" s="1">
         <v>44013.448391203703</v>
@@ -5756,7 +5760,7 @@
         <v>114</v>
       </c>
       <c r="B483" s="4">
-        <v>99.98</v>
+        <v>-3.17</v>
       </c>
       <c r="C483" s="1">
         <v>44013.448391203703</v>
@@ -5844,7 +5848,7 @@
         <v>104</v>
       </c>
       <c r="B491" s="4">
-        <v>99.98</v>
+        <v>-3.37</v>
       </c>
       <c r="C491" s="1">
         <v>44013.449444444443</v>
@@ -5888,7 +5892,7 @@
         <v>108</v>
       </c>
       <c r="B495" s="4">
-        <v>99.98</v>
+        <v>-3.6</v>
       </c>
       <c r="C495" s="1">
         <v>44013.449444444443</v>
@@ -5910,7 +5914,7 @@
         <v>110</v>
       </c>
       <c r="B497" s="4">
-        <v>99.98</v>
+        <v>-3.08</v>
       </c>
       <c r="C497" s="1">
         <v>44013.449444444443</v>
@@ -5921,7 +5925,7 @@
         <v>114</v>
       </c>
       <c r="B498" s="4">
-        <v>99.98</v>
+        <v>-3.12</v>
       </c>
       <c r="C498" s="1">
         <v>44013.449444444443</v>
@@ -6042,7 +6046,7 @@
         <v>104</v>
       </c>
       <c r="B509" s="4">
-        <v>99.98</v>
+        <v>-3.64</v>
       </c>
       <c r="C509" s="1">
         <v>44013.450486111113</v>
@@ -6086,7 +6090,7 @@
         <v>108</v>
       </c>
       <c r="B513" s="4">
-        <v>99.98</v>
+        <v>-3.46</v>
       </c>
       <c r="C513" s="1">
         <v>44013.450486111113</v>
@@ -6119,7 +6123,7 @@
         <v>110</v>
       </c>
       <c r="B516" s="4">
-        <v>99.98</v>
+        <v>-3.42</v>
       </c>
       <c r="C516" s="1">
         <v>44013.450486111113</v>
@@ -6130,7 +6134,7 @@
         <v>114</v>
       </c>
       <c r="B517" s="4">
-        <v>99.98</v>
+        <v>-3.17</v>
       </c>
       <c r="C517" s="1">
         <v>44013.450486111113</v>
@@ -6240,7 +6244,7 @@
         <v>104</v>
       </c>
       <c r="B527" s="4">
-        <v>99.98</v>
+        <v>-3.98</v>
       </c>
       <c r="C527" s="1">
         <v>44013.451539351852</v>
@@ -6295,7 +6299,7 @@
         <v>108</v>
       </c>
       <c r="B532" s="4">
-        <v>99.98</v>
+        <v>-3.46</v>
       </c>
       <c r="C532" s="1">
         <v>44013.451539351852</v>
@@ -6306,7 +6310,7 @@
         <v>110</v>
       </c>
       <c r="B533" s="4">
-        <v>99.98</v>
+        <v>-3.51</v>
       </c>
       <c r="C533" s="1">
         <v>44013.451539351852</v>
@@ -6339,7 +6343,7 @@
         <v>114</v>
       </c>
       <c r="B536" s="4">
-        <v>99.98</v>
+        <v>-3.46</v>
       </c>
       <c r="C536" s="1">
         <v>44013.451539351852</v>
@@ -6438,7 +6442,7 @@
         <v>104</v>
       </c>
       <c r="B545" s="4">
-        <v>99.98</v>
+        <v>-4.05</v>
       </c>
       <c r="C545" s="1">
         <v>44013.45275462963</v>
@@ -6460,7 +6464,7 @@
         <v>110</v>
       </c>
       <c r="B547" s="4">
-        <v>99.98</v>
+        <v>-3.64</v>
       </c>
       <c r="C547" s="1">
         <v>44013.45275462963</v>
@@ -6493,7 +6497,7 @@
         <v>108</v>
       </c>
       <c r="B550" s="4">
-        <v>99.98</v>
+        <v>-3.81</v>
       </c>
       <c r="C550" s="1">
         <v>44013.45275462963</v>
@@ -6548,7 +6552,7 @@
         <v>114</v>
       </c>
       <c r="B555" s="4">
-        <v>99.98</v>
+        <v>-3.15</v>
       </c>
       <c r="C555" s="1">
         <v>44013.45275462963</v>
@@ -6636,7 +6640,7 @@
         <v>104</v>
       </c>
       <c r="B563" s="4">
-        <v>99.98</v>
+        <v>-4.01</v>
       </c>
       <c r="C563" s="1">
         <v>44013.454097222224</v>
@@ -6691,7 +6695,7 @@
         <v>108</v>
       </c>
       <c r="B568" s="4">
-        <v>99.98</v>
+        <v>-3.85</v>
       </c>
       <c r="C568" s="1">
         <v>44013.454097222224</v>
@@ -6702,7 +6706,7 @@
         <v>110</v>
       </c>
       <c r="B569" s="4">
-        <v>99.98</v>
+        <v>-3.96</v>
       </c>
       <c r="C569" s="1">
         <v>44013.454097222224</v>
@@ -6746,7 +6750,7 @@
         <v>114</v>
       </c>
       <c r="B573" s="4">
-        <v>99.98</v>
+        <v>-3.15</v>
       </c>
       <c r="C573" s="1">
         <v>44013.454097222224</v>
@@ -6834,7 +6838,7 @@
         <v>104</v>
       </c>
       <c r="B581" s="4">
-        <v>99.98</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="C581" s="1">
         <v>44013.455138888887</v>
@@ -6889,7 +6893,7 @@
         <v>108</v>
       </c>
       <c r="B586" s="4">
-        <v>99.98</v>
+        <v>-3.49</v>
       </c>
       <c r="C586" s="1">
         <v>44013.455138888887</v>
@@ -6900,7 +6904,7 @@
         <v>110</v>
       </c>
       <c r="B587" s="4">
-        <v>99.98</v>
+        <v>-3.63</v>
       </c>
       <c r="C587" s="1">
         <v>44013.455138888887</v>
@@ -6944,7 +6948,7 @@
         <v>114</v>
       </c>
       <c r="B591" s="4">
-        <v>99.98</v>
+        <v>-4.04</v>
       </c>
       <c r="C591" s="1">
         <v>44013.455138888887</v>
@@ -7032,7 +7036,7 @@
         <v>104</v>
       </c>
       <c r="B599" s="4">
-        <v>99.98</v>
+        <v>-3.98</v>
       </c>
       <c r="C599" s="1">
         <v>44013.456180555557</v>
@@ -7087,7 +7091,7 @@
         <v>108</v>
       </c>
       <c r="B604" s="4">
-        <v>99.98</v>
+        <v>-3.68</v>
       </c>
       <c r="C604" s="1">
         <v>44013.456180555557</v>
@@ -7098,7 +7102,7 @@
         <v>110</v>
       </c>
       <c r="B605" s="4">
-        <v>99.98</v>
+        <v>-3.38</v>
       </c>
       <c r="C605" s="1">
         <v>44013.456180555557</v>
@@ -7142,7 +7146,7 @@
         <v>114</v>
       </c>
       <c r="B609" s="4">
-        <v>99.98</v>
+        <v>-3.31</v>
       </c>
       <c r="C609" s="1">
         <v>44013.456180555557</v>
@@ -7230,7 +7234,7 @@
         <v>104</v>
       </c>
       <c r="B617" s="4">
-        <v>99.98</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="C617" s="1">
         <v>44013.45722222222</v>
@@ -7285,7 +7289,7 @@
         <v>108</v>
       </c>
       <c r="B622" s="4">
-        <v>99.98</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="C622" s="1">
         <v>44013.45722222222</v>
@@ -7296,7 +7300,7 @@
         <v>110</v>
       </c>
       <c r="B623" s="4">
-        <v>99.98</v>
+        <v>-4.25</v>
       </c>
       <c r="C623" s="1">
         <v>44013.45722222222</v>
@@ -7340,7 +7344,7 @@
         <v>114</v>
       </c>
       <c r="B627" s="4">
-        <v>99.98</v>
+        <v>-3.92</v>
       </c>
       <c r="C627" s="1">
         <v>44013.45722222222</v>
@@ -7428,7 +7432,7 @@
         <v>104</v>
       </c>
       <c r="B635" s="4">
-        <v>99.98</v>
+        <v>-3.55</v>
       </c>
       <c r="C635" s="1">
         <v>44013.458275462966</v>
@@ -7483,7 +7487,7 @@
         <v>108</v>
       </c>
       <c r="B640" s="4">
-        <v>99.98</v>
+        <v>-3.85</v>
       </c>
       <c r="C640" s="1">
         <v>44013.458275462966</v>
@@ -7494,7 +7498,7 @@
         <v>110</v>
       </c>
       <c r="B641" s="4">
-        <v>99.98</v>
+        <v>-3.34</v>
       </c>
       <c r="C641" s="1">
         <v>44013.458275462966</v>
@@ -7538,7 +7542,7 @@
         <v>114</v>
       </c>
       <c r="B645" s="4">
-        <v>99.98</v>
+        <v>-3.51</v>
       </c>
       <c r="C645" s="1">
         <v>44013.458275462966</v>
